--- a/Main Website/media/IDFC_TW/TC Incentive/IDFC_TW TC Incentive.xlsx
+++ b/Main Website/media/IDFC_TW/TC Incentive/IDFC_TW TC Incentive.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,47 +511,37 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EMPLOYEE_ID</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_ID</t>
+          <t>MANAGER_ID</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>MANAGER_ID</t>
+          <t>DESIGNATION</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>DESIGNATION</t>
+          <t>STAFF</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>STAFF</t>
+          <t>EMPLOYEE_STATUS</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_STATUS</t>
+          <t>PROCESS</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PROCESS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
           <t>DEPARTMENT</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
         </is>
       </c>
     </row>
@@ -607,40 +593,36 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>O291</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>37615</v>
       </c>
     </row>
     <row r="3">
@@ -653,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6087889.729999998</v>
+        <v>6087889.73</v>
       </c>
       <c r="D3" t="n">
         <v>3151300.58</v>
       </c>
       <c r="E3" t="n">
-        <v>974106.9300000002</v>
+        <v>974106.9300000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -677,7 +659,7 @@
         <v>4125407.51</v>
       </c>
       <c r="K3" t="n">
-        <v>974106.9300000002</v>
+        <v>974106.9300000001</v>
       </c>
       <c r="L3" t="n">
         <v>67.76000000000001</v>
@@ -691,44 +673,40 @@
       <c r="O3" t="n">
         <v>1500</v>
       </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>O282</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>O282</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>36651</v>
       </c>
     </row>
     <row r="4">
@@ -744,7 +722,7 @@
         <v>11451378.26</v>
       </c>
       <c r="D4" t="n">
-        <v>9723968.860000003</v>
+        <v>9723968.859999999</v>
       </c>
       <c r="E4" t="n">
         <v>1425460.09</v>
@@ -779,44 +757,40 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>O263</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>O263</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>33635</v>
       </c>
     </row>
     <row r="5">
@@ -867,63 +841,59 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>O263</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>O263</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>33635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KARAN PAL</t>
+          <t>MONA KUMARI</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1397376.38</v>
+        <v>6075970.79</v>
       </c>
       <c r="D6" t="n">
-        <v>1047088.55</v>
+        <v>3825090.91</v>
       </c>
       <c r="E6" t="n">
-        <v>235097.4</v>
+        <v>597253.91</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -935,80 +905,76 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>233038</v>
+        <v>417447</v>
       </c>
       <c r="J6" t="n">
-        <v>1282185.95</v>
+        <v>4422344.82</v>
       </c>
       <c r="K6" t="n">
-        <v>235097.4</v>
+        <v>597253.91</v>
       </c>
       <c r="L6" t="n">
-        <v>91.76000000000001</v>
+        <v>72.78</v>
       </c>
       <c r="M6" t="n">
-        <v>16.82</v>
+        <v>9.83</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1500</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>O247</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>O193</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>36811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KARAN PAL</t>
+          <t>MONA KUMARI</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>6953.43</v>
+        <v>19373.6</v>
       </c>
       <c r="D7" t="n">
-        <v>6953.43</v>
+        <v>17071.6</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1020,22 +986,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2302</v>
       </c>
       <c r="I7" t="n">
-        <v>1207</v>
+        <v>9358</v>
       </c>
       <c r="J7" t="n">
-        <v>6953.43</v>
+        <v>19373.6</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2302</v>
       </c>
       <c r="L7" t="n">
         <v>100</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>11.88</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1043,63 +1009,59 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>O247</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>O193</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>36811</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MONA KUMARI</t>
+          <t>NISHA</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>6075970.789999999</v>
+        <v>5881145.84</v>
       </c>
       <c r="D8" t="n">
-        <v>3825090.909999999</v>
+        <v>3374504.65</v>
       </c>
       <c r="E8" t="n">
-        <v>597253.91</v>
+        <v>476317.14</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1111,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>417447</v>
+        <v>287591</v>
       </c>
       <c r="J8" t="n">
-        <v>4422344.819999999</v>
+        <v>3850821.79</v>
       </c>
       <c r="K8" t="n">
-        <v>597253.91</v>
+        <v>476317.14</v>
       </c>
       <c r="L8" t="n">
-        <v>72.78</v>
+        <v>65.48</v>
       </c>
       <c r="M8" t="n">
-        <v>9.83</v>
+        <v>8.1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1131,60 +1093,56 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>O264</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>O247</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X8" s="2" t="n">
-        <v>35987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MONA KUMARI</t>
+          <t>NISHA</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>19373.6</v>
+        <v>6233.3</v>
       </c>
       <c r="D9" t="n">
-        <v>17071.6</v>
+        <v>6233.3</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1196,22 +1154,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2302</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9358</v>
+        <v>3733</v>
       </c>
       <c r="J9" t="n">
-        <v>19373.6</v>
+        <v>6233.3</v>
       </c>
       <c r="K9" t="n">
-        <v>2302</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>11.88</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1219,63 +1177,59 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>O264</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>O247</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X9" s="2" t="n">
-        <v>35987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NISHA</t>
+          <t>OM KUMAR MISHRA</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5881145.840000003</v>
+        <v>5657001.68</v>
       </c>
       <c r="D10" t="n">
-        <v>3374504.649999999</v>
+        <v>3032257.56</v>
       </c>
       <c r="E10" t="n">
-        <v>476317.14</v>
+        <v>736491.35</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1287,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>287591</v>
+        <v>314017</v>
       </c>
       <c r="J10" t="n">
-        <v>3850821.789999999</v>
+        <v>3768748.91</v>
       </c>
       <c r="K10" t="n">
-        <v>476317.14</v>
+        <v>736491.35</v>
       </c>
       <c r="L10" t="n">
-        <v>65.48</v>
+        <v>66.62</v>
       </c>
       <c r="M10" t="n">
-        <v>8.1</v>
+        <v>13.02</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1307,60 +1261,56 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>O280</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>O264</t>
+          <t>P200</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X10" s="2" t="n">
-        <v>30365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NISHA</t>
+          <t>OM KUMAR MISHRA</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>6233.3</v>
+        <v>11860.7</v>
       </c>
       <c r="D11" t="n">
-        <v>6233.3</v>
+        <v>11860.7</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1375,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3733</v>
+        <v>3909</v>
       </c>
       <c r="J11" t="n">
-        <v>6233.3</v>
+        <v>11860.7</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1395,63 +1345,59 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>O280</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>O264</t>
+          <t>P200</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>30365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NO TC</t>
+          <t>POOJA</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>13588428.97</v>
+        <v>52748.44</v>
       </c>
       <c r="D12" t="n">
-        <v>11816415</v>
+        <v>52748.44</v>
       </c>
       <c r="E12" t="n">
-        <v>1715348.869999999</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1463,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>868979.14</v>
+        <v>6045</v>
       </c>
       <c r="J12" t="n">
-        <v>13531763.87</v>
+        <v>52748.44</v>
       </c>
       <c r="K12" t="n">
-        <v>1715348.869999999</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>99.58</v>
+        <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>12.62</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>5000</v>
@@ -1490,29 +1436,27 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NO TC</t>
+          <t>RAHUL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>41608.07</v>
+        <v>6122457.88</v>
       </c>
       <c r="D13" t="n">
-        <v>29911.99</v>
+        <v>3729553.11</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>970175.4</v>
       </c>
       <c r="F13" t="n">
-        <v>11696.08</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1521,53 +1465,79 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>16743</v>
+        <v>438020</v>
       </c>
       <c r="J13" t="n">
-        <v>41608.07</v>
+        <v>4699728.51</v>
       </c>
       <c r="K13" t="n">
-        <v>11696.08</v>
+        <v>970175.4</v>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>76.76000000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>28.11</v>
+        <v>15.85</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+        <v>1500</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>O259</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OM KUMAR MISHRA</t>
+          <t>RAHUL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>5657001.680000002</v>
+        <v>3901.7</v>
       </c>
       <c r="D14" t="n">
-        <v>3032257.559999999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>736491.35</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1576,22 +1546,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3901.7</v>
       </c>
       <c r="I14" t="n">
-        <v>314017</v>
+        <v>3902</v>
       </c>
       <c r="J14" t="n">
-        <v>3768748.909999999</v>
+        <v>3901.7</v>
       </c>
       <c r="K14" t="n">
-        <v>736491.35</v>
+        <v>3901.7</v>
       </c>
       <c r="L14" t="n">
-        <v>66.62</v>
+        <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>13.02</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1599,60 +1569,56 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>O259</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>O280</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>37305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OM KUMAR MISHRA</t>
+          <t>RAHUL CHANDER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>11860.7</v>
+        <v>1945969.45</v>
       </c>
       <c r="D15" t="n">
-        <v>11860.7</v>
+        <v>47335.7</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1667,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3909</v>
+        <v>16958</v>
       </c>
       <c r="J15" t="n">
-        <v>11860.7</v>
+        <v>47335.7</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>2.43</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1687,63 +1653,59 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>O283</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>O280</t>
+          <t>P226</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>L&amp;T</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>37305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>POOJA</t>
+          <t>RAVINDER</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>52748.44</v>
+        <v>6481504.28</v>
       </c>
       <c r="D16" t="n">
-        <v>52748.44</v>
+        <v>3588143.08</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1047929.34</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1755,53 +1717,79 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6045</v>
+        <v>432630</v>
       </c>
       <c r="J16" t="n">
-        <v>52748.44</v>
+        <v>4636072.42</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1047929.34</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>71.53</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>16.17</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+        <v>1500</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>O249</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RAHUL</t>
+          <t>RAVINDER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>6122457.880000002</v>
+        <v>15435.11</v>
       </c>
       <c r="D17" t="n">
-        <v>3729553.11</v>
+        <v>15435.11</v>
       </c>
       <c r="E17" t="n">
-        <v>970175.4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1813,80 +1801,76 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>438020</v>
+        <v>3871</v>
       </c>
       <c r="J17" t="n">
-        <v>4699728.510000001</v>
+        <v>15435.11</v>
       </c>
       <c r="K17" t="n">
-        <v>970175.4</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>76.76000000000001</v>
+        <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>15.85</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1500</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>O249</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>O259</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X17" s="2" t="n">
-        <v>36677</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RAHUL</t>
+          <t>RAVINDER</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>3901.7</v>
+        <v>16179.8</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>12198.4</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1898,22 +1882,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3901.7</v>
+        <v>3981.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3902</v>
+        <v>7129</v>
       </c>
       <c r="J18" t="n">
-        <v>3901.7</v>
+        <v>16179.8</v>
       </c>
       <c r="K18" t="n">
-        <v>3901.7</v>
+        <v>3981.4</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>24.61</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1921,63 +1905,59 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>O249</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>O259</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X18" s="2" t="n">
-        <v>36677</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RAHUL CHANDER</t>
+          <t>RITIKA KASHYAP</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1945969.45</v>
+        <v>4876061.55</v>
       </c>
       <c r="D19" t="n">
-        <v>47335.7</v>
+        <v>2378955.75</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>699343.12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1989,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>16958</v>
+        <v>397866</v>
       </c>
       <c r="J19" t="n">
-        <v>47335.7</v>
+        <v>3078298.87</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>699343.12</v>
       </c>
       <c r="L19" t="n">
-        <v>2.43</v>
+        <v>63.13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>14.34</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2009,63 +1989,59 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>O270</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>O283</t>
+          <t>P200</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X19" s="2" t="n">
-        <v>36169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RAVINDER</t>
+          <t>SHIVANI NEGI</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>6481504.280000001</v>
+        <v>5491226.96</v>
       </c>
       <c r="D20" t="n">
-        <v>3588143.080000001</v>
+        <v>2855739.87</v>
       </c>
       <c r="E20" t="n">
-        <v>1047929.34</v>
+        <v>700684.73</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2077,80 +2053,76 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>432630</v>
+        <v>291317</v>
       </c>
       <c r="J20" t="n">
-        <v>4636072.420000002</v>
+        <v>3556424.6</v>
       </c>
       <c r="K20" t="n">
-        <v>1047929.34</v>
+        <v>700684.73</v>
       </c>
       <c r="L20" t="n">
-        <v>71.53</v>
+        <v>64.77</v>
       </c>
       <c r="M20" t="n">
-        <v>16.17</v>
+        <v>12.76</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1500</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>O275</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>O249</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>35714</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RAVINDER</t>
+          <t>SHIVANI NEGI</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>15435.11</v>
+        <v>12936.16</v>
       </c>
       <c r="D21" t="n">
-        <v>15435.11</v>
+        <v>12936.16</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2165,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3871</v>
+        <v>1576</v>
       </c>
       <c r="J21" t="n">
-        <v>15435.11</v>
+        <v>12936.16</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2180,68 +2152,64 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>O275</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>O249</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X21" s="2" t="n">
-        <v>35714</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RAVINDER</t>
+          <t>SHWETA</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>16179.8</v>
+        <v>4843186.28</v>
       </c>
       <c r="D22" t="n">
-        <v>12198.4</v>
+        <v>2722685.42</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>597513.63</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2250,22 +2218,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3981.4</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>7129</v>
+        <v>308615</v>
       </c>
       <c r="J22" t="n">
-        <v>16179.8</v>
+        <v>3320199.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3981.4</v>
+        <v>597513.63</v>
       </c>
       <c r="L22" t="n">
-        <v>100</v>
+        <v>68.55</v>
       </c>
       <c r="M22" t="n">
-        <v>24.61</v>
+        <v>12.34</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2273,63 +2241,59 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>O277</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>O249</t>
+          <t>P226</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X22" s="2" t="n">
-        <v>35714</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RITIKA KASHYAP</t>
+          <t>SHWETA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>4876061.549999999</v>
+        <v>51802.17</v>
       </c>
       <c r="D23" t="n">
-        <v>2378955.75</v>
+        <v>51802.17</v>
       </c>
       <c r="E23" t="n">
-        <v>699343.1200000001</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2341,19 +2305,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>397866</v>
+        <v>3190</v>
       </c>
       <c r="J23" t="n">
-        <v>3078298.87</v>
+        <v>51802.17</v>
       </c>
       <c r="K23" t="n">
-        <v>699343.1200000001</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>63.13</v>
+        <v>100</v>
       </c>
       <c r="M23" t="n">
-        <v>14.34</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2361,63 +2325,59 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>O277</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>O270</t>
+          <t>P226</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X23" s="2" t="n">
-        <v>37483</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SHIVANI NEGI</t>
+          <t>SHWETA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>5491226.959999996</v>
+        <v>53938</v>
       </c>
       <c r="D24" t="n">
-        <v>2855739.87</v>
+        <v>53938</v>
       </c>
       <c r="E24" t="n">
-        <v>700684.7299999999</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2429,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>291317</v>
+        <v>3430</v>
       </c>
       <c r="J24" t="n">
-        <v>3556424.6</v>
+        <v>53938</v>
       </c>
       <c r="K24" t="n">
-        <v>700684.7299999999</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>64.77</v>
+        <v>100</v>
       </c>
       <c r="M24" t="n">
-        <v>12.76</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2449,63 +2409,59 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>O277</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>O275</t>
+          <t>P226</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X24" s="2" t="n">
-        <v>36426</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SHIVANI NEGI</t>
+          <t>SIMRAN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>12936.16</v>
+        <v>5713776.06</v>
       </c>
       <c r="D25" t="n">
-        <v>12936.16</v>
+        <v>2963818.51</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1037703.87</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2517,83 +2473,79 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1576</v>
+        <v>383541</v>
       </c>
       <c r="J25" t="n">
-        <v>12936.16</v>
+        <v>4001522.38</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1037703.87</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>70.03</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>18.16</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
+        <v>1500</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>O284</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>O275</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X25" s="2" t="n">
-        <v>36426</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SHWETA</t>
+          <t>SIMRAN</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>4843186.28</v>
+        <v>26942</v>
       </c>
       <c r="D26" t="n">
-        <v>2722685.42</v>
+        <v>26942</v>
       </c>
       <c r="E26" t="n">
-        <v>597513.63</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2605,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>308615</v>
+        <v>2617</v>
       </c>
       <c r="J26" t="n">
-        <v>3320199.05</v>
+        <v>26942</v>
       </c>
       <c r="K26" t="n">
-        <v>597513.63</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>68.55</v>
+        <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>12.34</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2625,66 +2577,62 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>O284</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>O277</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X26" s="2" t="n">
-        <v>36004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SHWETA</t>
+          <t>SIMRAN</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>51802.17</v>
+        <v>40542.48</v>
       </c>
       <c r="D27" t="n">
-        <v>51802.17</v>
+        <v>19425.98</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>11128.1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3280</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2693,83 +2641,79 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3190</v>
+        <v>18887</v>
       </c>
       <c r="J27" t="n">
-        <v>51802.17</v>
+        <v>33834.08</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>14408.1</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>83.45</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>35.54</v>
       </c>
       <c r="N27" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>O284</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>O277</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X27" s="2" t="n">
-        <v>36004</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SHWETA</t>
+          <t>SNEHA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>53938</v>
+        <v>3416081.83</v>
       </c>
       <c r="D28" t="n">
-        <v>53938</v>
+        <v>1036868.49</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>476166.55</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2781,19 +2725,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3430</v>
+        <v>155770</v>
       </c>
       <c r="J28" t="n">
-        <v>53938</v>
+        <v>1513035.04</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>476166.55</v>
       </c>
       <c r="L28" t="n">
-        <v>100</v>
+        <v>44.29</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>13.94</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2801,63 +2745,59 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>O262</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>O277</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X28" s="2" t="n">
-        <v>36004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SIMRAN</t>
+          <t>SNEHA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>5713776.060000001</v>
+        <v>10926.2</v>
       </c>
       <c r="D29" t="n">
-        <v>2963818.51</v>
+        <v>10926.2</v>
       </c>
       <c r="E29" t="n">
-        <v>1037703.87</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2869,80 +2809,76 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>383541</v>
+        <v>6039</v>
       </c>
       <c r="J29" t="n">
-        <v>4001522.38</v>
+        <v>10926.2</v>
       </c>
       <c r="K29" t="n">
-        <v>1037703.87</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>70.03</v>
+        <v>100</v>
       </c>
       <c r="M29" t="n">
-        <v>18.16</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1500</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>O262</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>O284</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X29" s="2" t="n">
-        <v>37573</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SIMRAN</t>
+          <t>VIJAY KHANNA</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>26942</v>
+        <v>42664.2</v>
       </c>
       <c r="D30" t="n">
-        <v>26942</v>
+        <v>42664.2</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2957,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2617</v>
+        <v>5550</v>
       </c>
       <c r="J30" t="n">
-        <v>26942</v>
+        <v>42664.2</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2972,71 +2908,67 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>O195</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>O284</t>
+          <t>P200</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>BAJAJ</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X30" s="2" t="n">
-        <v>37573</v>
+          <t>CD</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SIMRAN</t>
+          <t>VISHAL PAL</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>40542.48</v>
+        <v>2555366.88</v>
       </c>
       <c r="D31" t="n">
-        <v>19425.98</v>
+        <v>2112717.41</v>
       </c>
       <c r="E31" t="n">
-        <v>11128.1</v>
+        <v>442649.47</v>
       </c>
       <c r="F31" t="n">
-        <v>3280</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3045,83 +2977,79 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>18887</v>
+        <v>230549</v>
       </c>
       <c r="J31" t="n">
-        <v>33834.08</v>
+        <v>2555366.88</v>
       </c>
       <c r="K31" t="n">
-        <v>14408.1</v>
+        <v>442649.47</v>
       </c>
       <c r="L31" t="n">
-        <v>83.45</v>
+        <v>100</v>
       </c>
       <c r="M31" t="n">
-        <v>35.54</v>
+        <v>17.32</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="inlineStr"/>
+        <v>1500</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>O197</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>O284</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X31" s="2" t="n">
-        <v>37573</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SNEHA</t>
+          <t>VISHAL PAL</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>3416081.830000001</v>
+        <v>107965.3</v>
       </c>
       <c r="D32" t="n">
-        <v>1036868.49</v>
+        <v>61927.7</v>
       </c>
       <c r="E32" t="n">
-        <v>476166.55</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3133,19 +3061,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>155770</v>
+        <v>6208</v>
       </c>
       <c r="J32" t="n">
-        <v>1513035.04</v>
+        <v>61927.7</v>
       </c>
       <c r="K32" t="n">
-        <v>476166.55</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>44.29</v>
+        <v>57.36</v>
       </c>
       <c r="M32" t="n">
-        <v>13.94</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3153,60 +3081,56 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>O197</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>O262</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X32" s="2" t="n">
-        <v>35660</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SNEHA</t>
+          <t>VISHAL PAL</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>10926.2</v>
+        <v>148101.58</v>
       </c>
       <c r="D33" t="n">
-        <v>10926.2</v>
+        <v>148101.58</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3221,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6039</v>
+        <v>5999</v>
       </c>
       <c r="J33" t="n">
-        <v>10926.2</v>
+        <v>148101.58</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3241,151 +3165,143 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>O197</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>O262</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X33" s="2" t="n">
-        <v>35660</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>VISHAL PAL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>42664.2</v>
+        <v>1909163.19</v>
       </c>
       <c r="D34" t="n">
-        <v>42664.2</v>
+        <v>264863.81</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4568</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>25130.65</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136424.02</v>
       </c>
       <c r="I34" t="n">
-        <v>5550</v>
+        <v>210873</v>
       </c>
       <c r="J34" t="n">
-        <v>42664.2</v>
+        <v>430986.48</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>166122.67</v>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>22.57</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>O197</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>O195</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>BAJAJ</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="X34" s="2" t="n">
-        <v>32962</v>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VISHAL PAL</t>
+          <t>YASMEEN KHATOON</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2555366.88</v>
+        <v>22270.8</v>
       </c>
       <c r="D35" t="n">
-        <v>2112717.41</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>442649.47</v>
+        <v>22270.8</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3397,83 +3313,79 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>230549</v>
+        <v>5678</v>
       </c>
       <c r="J35" t="n">
-        <v>2555366.88</v>
+        <v>22270.8</v>
       </c>
       <c r="K35" t="n">
-        <v>442649.47</v>
+        <v>22270.8</v>
       </c>
       <c r="L35" t="n">
         <v>100</v>
       </c>
       <c r="M35" t="n">
-        <v>17.32</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
         <v>5000</v>
       </c>
       <c r="O35" t="n">
-        <v>1500</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
+        <v>5000</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>O272</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>O197</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X35" s="2" t="n">
-        <v>35539</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VISHAL PAL</t>
+          <t>ZOYA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>107965.3</v>
+        <v>5527365.62</v>
       </c>
       <c r="D36" t="n">
-        <v>61927.7</v>
+        <v>2979977.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>794428.84</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3485,19 +3397,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6208</v>
+        <v>354908.51</v>
       </c>
       <c r="J36" t="n">
-        <v>61927.7</v>
+        <v>3774406.34</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>794428.84</v>
       </c>
       <c r="L36" t="n">
-        <v>57.36</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>14.37</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3505,60 +3417,56 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>O276</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>O197</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X36" s="2" t="n">
-        <v>35539</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>VISHAL PAL</t>
+          <t>ZOYA</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>148101.58</v>
+        <v>8904</v>
       </c>
       <c r="D37" t="n">
-        <v>148101.58</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3570,22 +3478,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8904</v>
       </c>
       <c r="I37" t="n">
-        <v>5999</v>
+        <v>5777</v>
       </c>
       <c r="J37" t="n">
-        <v>148101.58</v>
+        <v>8904</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>8904</v>
       </c>
       <c r="L37" t="n">
         <v>100</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3593,87 +3501,83 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>O276</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>O197</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X37" s="2" t="n">
-        <v>35539</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>VISHAL PAL</t>
+          <t>AKSHITA KASHYAP</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1909163.19</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>264863.8099999999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>4568</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>25130.65</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>136424.02</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210873</v>
+        <v>64753</v>
       </c>
       <c r="J38" t="n">
-        <v>430986.48</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>166122.67</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>22.57</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3681,63 +3585,55 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>O197</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>O291</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X38" s="2" t="n">
-        <v>35539</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>YASMEEN KHATOON</t>
+          <t>ANOOP PATHAK</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>22270.8</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>22270.8</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3749,83 +3645,79 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>5678</v>
+        <v>444490</v>
       </c>
       <c r="J39" t="n">
-        <v>22270.8</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>22270.8</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>O282</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>O272</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X39" s="2" t="n">
-        <v>37374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ZOYA</t>
+          <t>GAURAV</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>5527365.62</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2979977.5</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>794428.84</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3837,19 +3729,19 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>354908.51</v>
+        <v>996514</v>
       </c>
       <c r="J40" t="n">
-        <v>3774406.34</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>794428.84</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>14.37</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3857,57 +3749,53 @@
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="P40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>O263</t>
+        </is>
+      </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>O276</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X40" s="2" t="n">
-        <v>37677</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ZOYA</t>
+          <t>MONA KUMARI</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8904</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3922,22 +3810,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8904</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5777</v>
+        <v>426805</v>
       </c>
       <c r="J41" t="n">
-        <v>8904</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>8904</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3945,63 +3833,59 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
-      <c r="P41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>O247</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>O276</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X41" s="2" t="n">
-        <v>37677</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ANKUR</t>
+          <t>NISHA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>45274998.84000004</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>27242760.58000001</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>5193181.200000002</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -4013,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>291324</v>
       </c>
       <c r="J42" t="n">
-        <v>32435941.78000002</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -4033,63 +3917,59 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>O264</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>O251</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X42" s="2" t="n">
-        <v>37164</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KARAN PAL</t>
+          <t>OM KUMAR MISHRA</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>54203205.44000009</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33678306.31999998</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>7788880.159999999</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4101,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>317926</v>
       </c>
       <c r="J43" t="n">
-        <v>41467186.47999997</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4121,50 +4001,46 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>O280</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>O193</t>
+          <t>P200</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X43" s="2" t="n">
-        <v>36811</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AKSHITA KASHYAP</t>
+          <t>POOJA</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4189,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>64753</v>
+        <v>6045</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4210,45 +4086,17 @@
         <v>0</v>
       </c>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>O291</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>OFFICE</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>INACTIVE</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X44" s="2" t="n">
-        <v>37615</v>
-      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ANOOP PATHAK</t>
+          <t>RAHUL</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4273,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>444490</v>
+        <v>441922</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4293,50 +4141,46 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>O259</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>O282</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X45" s="2" t="n">
-        <v>36651</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GAURAV</t>
+          <t>RAHUL CHANDER</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4361,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>996514</v>
+        <v>16958</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4381,50 +4225,46 @@
       <c r="O46" t="n">
         <v>0</v>
       </c>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>O283</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>O263</t>
+          <t>P226</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>L&amp;T</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X46" s="2" t="n">
-        <v>33635</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KARAN PAL</t>
+          <t>RAVINDER</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4449,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>234245</v>
+        <v>443630</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -4469,50 +4309,46 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>O249</t>
+        </is>
+      </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>O193</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X47" s="2" t="n">
-        <v>36811</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MONA KUMARI</t>
+          <t>RITIKA KASHYAP</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4537,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>426805</v>
+        <v>397866</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -4557,50 +4393,46 @@
       <c r="O48" t="n">
         <v>0</v>
       </c>
-      <c r="P48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>O270</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>O247</t>
+          <t>P200</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X48" s="2" t="n">
-        <v>35987</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NISHA</t>
+          <t>SHIVANI NEGI</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4625,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>291324</v>
+        <v>292893</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -4645,50 +4477,46 @@
       <c r="O49" t="n">
         <v>0</v>
       </c>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>O275</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>O264</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X49" s="2" t="n">
-        <v>30365</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NO TC</t>
+          <t>SHWETA</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4713,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>885722.14</v>
+        <v>315235</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -4733,20 +4561,46 @@
       <c r="O50" t="n">
         <v>0</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>O277</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>P226</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OM KUMAR MISHRA</t>
+          <t>SIMRAN</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4771,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>317926</v>
+        <v>405045</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -4791,50 +4645,46 @@
       <c r="O51" t="n">
         <v>0</v>
       </c>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>O284</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>O280</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X51" s="2" t="n">
-        <v>37305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>POOJA</t>
+          <t>SNEHA</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4859,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>6045</v>
+        <v>161809</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -4879,20 +4729,46 @@
       <c r="O52" t="n">
         <v>0</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>O262</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RAHUL</t>
+          <t>VIJAY KHANNA</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4917,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>441922</v>
+        <v>5550</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -4937,50 +4813,46 @@
       <c r="O53" t="n">
         <v>0</v>
       </c>
-      <c r="P53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>O195</t>
+        </is>
+      </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>O259</t>
+          <t>P200</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>BAJAJ</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X53" s="2" t="n">
-        <v>36677</v>
+          <t>CD</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RAHUL CHANDER</t>
+          <t>VISHAL PAL</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -5005,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>16958</v>
+        <v>453629</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -5020,55 +4892,51 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
-      <c r="P54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>O197</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>O283</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>P226</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X54" s="2" t="n">
-        <v>36169</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RAVINDER</t>
+          <t>YASMEEN KHATOON</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -5093,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>443630</v>
+        <v>5678</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -5113,50 +4981,46 @@
       <c r="O55" t="n">
         <v>0</v>
       </c>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>O272</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>O249</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X55" s="2" t="n">
-        <v>35714</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RITIKA KASHYAP</t>
+          <t>ZOYA</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -5181,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>397866</v>
+        <v>360685.51</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -5201,748 +5065,40 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>O276</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>O270</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>P200</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>OFFICE</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>OFFICE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
           <t>TW</t>
         </is>
-      </c>
-      <c r="X56" s="2" t="n">
-        <v>37483</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>SHIVANI NEGI</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>292893</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>O275</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>OFFICE</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X57" s="2" t="n">
-        <v>36426</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>SHWETA</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>315235</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>O277</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>OFFICE</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X58" s="2" t="n">
-        <v>36004</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>SIMRAN</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>405045</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>O284</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>OFFICE</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X59" s="2" t="n">
-        <v>37573</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>SNEHA</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>161809</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>O262</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>OFFICE</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X60" s="2" t="n">
-        <v>35660</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>VIJAY KHANNA</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5550</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>O195</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>P200</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>OFFICE</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>BAJAJ</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="X61" s="2" t="n">
-        <v>32962</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>VISHAL PAL</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>453629</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>O197</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>OFFICE</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X62" s="2" t="n">
-        <v>35539</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>YASMEEN KHATOON</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5678</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>O272</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>OFFICE</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>INACTIVE</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X63" s="2" t="n">
-        <v>37374</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>ZOYA</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>360685.51</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>O276</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>OFFICE</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-      <c r="X64" s="2" t="n">
-        <v>37677</v>
       </c>
     </row>
   </sheetData>
